--- a/biology/Biologie cellulaire et moléculaire/Techniques_de_biologie_moléculaire/Techniques_de_biologie_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Techniques_de_biologie_moléculaire/Techniques_de_biologie_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Techniques_de_biologie_mol%C3%A9culaire</t>
+          <t>Techniques_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Principales techniques utilisées couramment en biologie moléculaire :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Techniques_de_biologie_mol%C3%A9culaire</t>
+          <t>Techniques_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Électrophorèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Électrophorèse sur gel : cette technique permet de séparer des molécules en fonction de leur taille (appelée poids moléculaire) en les faisant migrer à travers un gel par application d'un champ électrique.  Le courant entraîne les molécules et les mailles du gel les freinent. Leur migration dépend donc à la fois de leur taille mais aussi de la concentration du gel; elles iront d'autant plus loin qu'elles sont de petite taille et le gel moins concentré. Cette technique peut être utilisée pour séparer de l'ADN, de l'ARN (gels d'agarose ou d'acrylamide) ou des protéines (gel d'acrylamide).
 Électrophorèse sur gel en gradient dénaturant.
